--- a/application/modules/common/assets/template/AdjustStock_Template.xlsx
+++ b/application/modules/common/assets/template/AdjustStock_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebServer\Apache24\htdocs\BigC-Donjai\application\modules\common\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebServer\Apache24\htdocs\AdaPos5.0-STD\application\modules\common\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Suggestion" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>* Product Code Text[20]</t>
   </si>
@@ -98,6 +98,9 @@
   <si>
     <t xml:space="preserve"> * Qty  Decimal[18,4] </t>
   </si>
+  <si>
+    <t xml:space="preserve"> Stock Control Code[50]</t>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;????_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +163,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -289,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -316,6 +325,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -602,35 +616,35 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="21" x14ac:dyDescent="0.5">
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="9"/>
       <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
@@ -642,7 +656,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
@@ -654,7 +668,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
@@ -666,7 +680,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
@@ -678,7 +692,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
         <v>9</v>
@@ -696,7 +710,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
@@ -719,29 +733,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
